--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3783.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3783.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.838902866614277</v>
+        <v>3.774648427963257</v>
       </c>
       <c r="B1">
-        <v>2.539549494179115</v>
+        <v>3.952715635299683</v>
       </c>
       <c r="C1">
-        <v>2.766815317905172</v>
+        <v>3.242544889450073</v>
       </c>
       <c r="D1">
-        <v>3.297379975691813</v>
+        <v>3.093845129013062</v>
       </c>
       <c r="E1">
-        <v>2.788095196679474</v>
+        <v>1.917772173881531</v>
       </c>
     </row>
   </sheetData>
